--- a/data/trans_orig/IP1001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1001-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63525AB5-9B6D-4E7B-81CA-274B16C80B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3415F196-5C63-4B71-B295-9B0DA919FD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3AB297EA-EF1F-47B8-834B-08FF1196000B}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2E072234-CEDA-402B-BB8A-D6C23A3BFDA0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>6,26%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
     <t>97,33%</t>
   </si>
   <si>
@@ -353,6 +353,54 @@
     <t>3,21%</t>
   </si>
   <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
     <t>96,31%</t>
   </si>
   <si>
@@ -401,54 +449,6 @@
     <t>4,58%</t>
   </si>
   <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
     <t>96,14%</t>
   </si>
   <si>
@@ -548,6 +548,48 @@
     <t>3,17%</t>
   </si>
   <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
     <t>96,54%</t>
   </si>
   <si>
@@ -590,48 +632,6 @@
     <t>4,5%</t>
   </si>
   <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
     <t>97,42%</t>
   </si>
   <si>
@@ -725,6 +725,48 @@
     <t>2,8%</t>
   </si>
   <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
     <t>95,49%</t>
   </si>
   <si>
@@ -771,48 +813,6 @@
   </si>
   <si>
     <t>5,04%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
   </si>
   <si>
     <t>96,6%</t>
@@ -1252,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FAB1D3-B6EC-4199-B65A-5EE576DD2990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273533A9-0C98-41ED-BACA-2A1460816245}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>403</v>
+        <v>325</v>
       </c>
       <c r="D7" s="7">
-        <v>269129</v>
+        <v>214689</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1540,10 +1540,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="I7" s="7">
-        <v>252282</v>
+        <v>200863</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1555,10 +1555,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>777</v>
+        <v>622</v>
       </c>
       <c r="N7" s="7">
-        <v>521411</v>
+        <v>415551</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1576,10 +1576,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>12369</v>
+        <v>3352</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1591,10 +1591,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>13321</v>
+        <v>4359</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1606,10 +1606,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>25690</v>
+        <v>7712</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1627,10 +1627,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1642,10 +1642,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1657,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>325</v>
+        <v>403</v>
       </c>
       <c r="D10" s="7">
-        <v>214689</v>
+        <v>269129</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1695,10 +1695,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="I10" s="7">
-        <v>200863</v>
+        <v>252282</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1710,10 +1710,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>622</v>
+        <v>777</v>
       </c>
       <c r="N10" s="7">
-        <v>415551</v>
+        <v>521411</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1731,10 +1731,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>3352</v>
+        <v>12369</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1746,10 +1746,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>4359</v>
+        <v>13321</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1761,10 +1761,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="N11" s="7">
-        <v>7712</v>
+        <v>25690</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1782,10 +1782,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1797,10 +1797,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1812,10 +1812,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1998,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D623BFA7-F488-4EAB-AF40-73027B513281}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C78603-91B3-4C10-9038-AED060B32D8F}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2137,7 +2137,7 @@
         <v>219795</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>91</v>
@@ -2188,7 +2188,7 @@
         <v>4753</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>99</v>
@@ -2271,10 +2271,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>384</v>
+        <v>325</v>
       </c>
       <c r="D7" s="7">
-        <v>260375</v>
+        <v>234738</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>104</v>
@@ -2286,10 +2286,10 @@
         <v>106</v>
       </c>
       <c r="H7" s="7">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="I7" s="7">
-        <v>248271</v>
+        <v>225414</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>107</v>
@@ -2298,16 +2298,16 @@
         <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
-        <v>738</v>
+        <v>640</v>
       </c>
       <c r="N7" s="7">
-        <v>508646</v>
+        <v>460152</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>110</v>
@@ -2322,10 +2322,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>9979</v>
+        <v>5978</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>112</v>
@@ -2337,28 +2337,28 @@
         <v>114</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>5931</v>
+        <v>2764</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>15910</v>
+        <v>8742</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>118</v>
@@ -2373,10 +2373,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2388,10 +2388,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2403,10 +2403,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>652</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468894</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2426,10 +2426,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="D10" s="7">
-        <v>234738</v>
+        <v>260375</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>120</v>
@@ -2441,10 +2441,10 @@
         <v>122</v>
       </c>
       <c r="H10" s="7">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="I10" s="7">
-        <v>225414</v>
+        <v>248271</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>123</v>
@@ -2453,16 +2453,16 @@
         <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="7">
+        <v>738</v>
+      </c>
+      <c r="N10" s="7">
+        <v>508646</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="M10" s="7">
-        <v>640</v>
-      </c>
-      <c r="N10" s="7">
-        <v>460152</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>126</v>
@@ -2477,10 +2477,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>5978</v>
+        <v>9979</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>128</v>
@@ -2492,28 +2492,28 @@
         <v>130</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>2764</v>
+        <v>5931</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>22</v>
+      </c>
+      <c r="N11" s="7">
+        <v>15910</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="M11" s="7">
-        <v>12</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8742</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>134</v>
@@ -2528,10 +2528,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240716</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2543,10 +2543,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2558,10 +2558,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>652</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468894</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2744,7 +2744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E6C8EC-C50F-4150-8016-C7DE671C0F03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213C2D55-20D6-4116-AFFE-8A27F3E2ACB9}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2898,7 +2898,7 @@
         <v>406885</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>159</v>
@@ -2949,7 +2949,7 @@
         <v>7546</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>167</v>
@@ -3017,10 +3017,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D7" s="7">
-        <v>271895</v>
+        <v>244932</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>169</v>
@@ -3029,31 +3029,31 @@
         <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="7">
+        <v>352</v>
+      </c>
+      <c r="I7" s="7">
+        <v>229981</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="7">
-        <v>365</v>
-      </c>
-      <c r="I7" s="7">
-        <v>260508</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="L7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="7">
+        <v>707</v>
+      </c>
+      <c r="N7" s="7">
+        <v>474913</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="M7" s="7">
-        <v>733</v>
-      </c>
-      <c r="N7" s="7">
-        <v>532403</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>174</v>
@@ -3068,43 +3068,43 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>9734</v>
+        <v>5120</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5352</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="7">
-        <v>10</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7262</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>16</v>
+      </c>
+      <c r="N8" s="7">
+        <v>10472</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="7">
-        <v>23</v>
-      </c>
-      <c r="N8" s="7">
-        <v>16996</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>181</v>
@@ -3119,10 +3119,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3134,10 +3134,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3149,10 +3149,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3172,10 +3172,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="D10" s="7">
-        <v>244932</v>
+        <v>271895</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>183</v>
@@ -3184,31 +3184,31 @@
         <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="I10" s="7">
-        <v>229981</v>
+        <v>260508</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
-        <v>707</v>
+        <v>733</v>
       </c>
       <c r="N10" s="7">
-        <v>474913</v>
+        <v>532403</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>188</v>
@@ -3223,43 +3223,43 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>5120</v>
+        <v>9734</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>5352</v>
+        <v>7262</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>10472</v>
+        <v>16996</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>195</v>
@@ -3274,10 +3274,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3289,10 +3289,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3304,10 +3304,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3369,7 +3369,7 @@
         <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,7 +3417,7 @@
         <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>212</v>
@@ -3490,7 +3490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F2AC6D-306B-47DA-A63D-D8CEA80FA5C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAA9C1D-24A6-4C19-A278-ECEABF74CABB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3763,10 +3763,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>458</v>
+        <v>264</v>
       </c>
       <c r="D7" s="7">
-        <v>384560</v>
+        <v>199889</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>228</v>
@@ -3775,28 +3775,28 @@
         <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="7">
+        <v>275</v>
+      </c>
+      <c r="I7" s="7">
+        <v>193854</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H7" s="7">
-        <v>451</v>
-      </c>
-      <c r="I7" s="7">
-        <v>342057</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>232</v>
       </c>
       <c r="M7" s="7">
-        <v>909</v>
+        <v>539</v>
       </c>
       <c r="N7" s="7">
-        <v>726618</v>
+        <v>393745</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>233</v>
@@ -3805,7 +3805,7 @@
         <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,49 +3814,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>18150</v>
+        <v>5166</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4413</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H8" s="7">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8751</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>13</v>
+      </c>
+      <c r="N8" s="7">
+        <v>9578</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="7">
-        <v>32</v>
-      </c>
-      <c r="N8" s="7">
-        <v>26901</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,10 +3865,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3880,10 +3880,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3895,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3918,49 +3918,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>264</v>
+        <v>458</v>
       </c>
       <c r="D10" s="7">
-        <v>199889</v>
+        <v>384560</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>451</v>
+      </c>
+      <c r="I10" s="7">
+        <v>342057</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="7">
-        <v>275</v>
-      </c>
-      <c r="I10" s="7">
-        <v>193854</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>909</v>
+      </c>
+      <c r="N10" s="7">
+        <v>726618</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="M10" s="7">
-        <v>539</v>
-      </c>
-      <c r="N10" s="7">
-        <v>393745</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,25 +3969,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>5166</v>
+        <v>18150</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>252</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>4413</v>
+        <v>8751</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>253</v>
@@ -3996,19 +3996,19 @@
         <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="7">
+        <v>32</v>
+      </c>
+      <c r="N11" s="7">
+        <v>26901</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M11" s="7">
-        <v>13</v>
-      </c>
-      <c r="N11" s="7">
-        <v>9578</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>257</v>
@@ -4020,10 +4020,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4035,10 +4035,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4050,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP1001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1001-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3415F196-5C63-4B71-B295-9B0DA919FD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4F4643A-CFAA-4BEC-9F2E-1D6E8D271BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2E072234-CEDA-402B-BB8A-D6C23A3BFDA0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F6AFCDC-409C-44E4-BE34-222A1392B814}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="311">
   <si>
     <t>Menores según si padecen asma en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,799 +68,910 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,41%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>96,5%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
 </sst>
 </file>
@@ -871,7 +982,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -967,39 +1078,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1051,7 +1162,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1162,13 +1273,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1177,6 +1281,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1241,19 +1352,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273533A9-0C98-41ED-BACA-2A1460816245}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31753AF7-C2BE-414C-9596-CA09B1560549}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1370,10 +1501,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>329</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>219606</v>
+        <v>2940</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1385,10 +1516,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>316</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>207342</v>
+        <v>2145</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1400,10 +1531,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>645</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>426948</v>
+        <v>5085</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1421,10 +1552,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7">
-        <v>3555</v>
+        <v>118440</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1436,10 +1567,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>2854</v>
+        <v>104026</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1451,10 +1582,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>337</v>
       </c>
       <c r="N5" s="7">
-        <v>6409</v>
+        <v>222466</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1472,10 +1603,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1487,10 +1618,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1502,10 +1633,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1656,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>325</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>214689</v>
+        <v>3320</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1540,10 +1671,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>297</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>200863</v>
+        <v>2587</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1555,10 +1686,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>622</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>415551</v>
+        <v>5907</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1576,10 +1707,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>377</v>
       </c>
       <c r="D8" s="7">
-        <v>3352</v>
+        <v>250436</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1591,10 +1722,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>375</v>
       </c>
       <c r="I8" s="7">
-        <v>4359</v>
+        <v>250618</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1606,10 +1737,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>752</v>
       </c>
       <c r="N8" s="7">
-        <v>7712</v>
+        <v>501054</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1627,10 +1758,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1642,10 +1773,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1657,10 +1788,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1811,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>403</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>269129</v>
+        <v>6130</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1695,10 +1826,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>374</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>252282</v>
+        <v>5537</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1710,19 +1841,19 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>777</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>521411</v>
+        <v>11667</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,49 +1862,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="D11" s="7">
-        <v>12369</v>
+        <v>135385</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>182</v>
+      </c>
+      <c r="I11" s="7">
+        <v>122011</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13321</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>384</v>
+      </c>
+      <c r="N11" s="7">
+        <v>257396</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>39</v>
-      </c>
-      <c r="N11" s="7">
-        <v>25690</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,10 +1913,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1797,10 +1928,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1812,10 +1943,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1829,55 +1960,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1057</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>703423</v>
+        <v>6887</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10266</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>987</v>
-      </c>
-      <c r="I13" s="7">
-        <v>660486</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>25</v>
+      </c>
+      <c r="N13" s="7">
+        <v>17153</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>2044</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1363910</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,49 +2017,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>29</v>
+        <v>300</v>
       </c>
       <c r="D14" s="7">
-        <v>19277</v>
+        <v>199162</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>271</v>
+      </c>
+      <c r="I14" s="7">
+        <v>183831</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>31</v>
-      </c>
-      <c r="I14" s="7">
-        <v>20535</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>571</v>
+      </c>
+      <c r="N14" s="7">
+        <v>382993</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>60</v>
-      </c>
-      <c r="N14" s="7">
-        <v>39811</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,55 +2068,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7">
+        <v>19277</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7">
+        <v>20535</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>60</v>
+      </c>
+      <c r="N16" s="7">
+        <v>39811</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1057</v>
+      </c>
+      <c r="D17" s="7">
+        <v>703423</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>987</v>
+      </c>
+      <c r="I17" s="7">
+        <v>660486</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2044</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1363910</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1998,8 +2290,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C78603-91B3-4C10-9038-AED060B32D8F}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46799652-6993-46DE-A0ED-1E041CCC073D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2015,7 +2307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2116,49 +2408,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>330</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>233632</v>
+        <v>1298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>330</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>219795</v>
+        <v>2586</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="M4" s="7">
-        <v>660</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>453427</v>
+        <v>3884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,49 +2459,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>4056</v>
+        <v>143215</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="I5" s="7">
-        <v>4753</v>
+        <v>143695</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>417</v>
       </c>
       <c r="N5" s="7">
-        <v>8809</v>
+        <v>286910</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,10 +2510,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2233,10 +2525,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2248,10 +2540,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2271,49 +2563,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>325</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>234738</v>
+        <v>7291</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>315</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>225414</v>
+        <v>4237</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
-        <v>640</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>460152</v>
+        <v>11528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,49 +2614,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>362</v>
       </c>
       <c r="D8" s="7">
-        <v>5978</v>
+        <v>260425</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>331</v>
       </c>
       <c r="I8" s="7">
-        <v>2764</v>
+        <v>230239</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>693</v>
       </c>
       <c r="N8" s="7">
-        <v>8742</v>
+        <v>490664</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,10 +2665,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="D9" s="7">
-        <v>240716</v>
+        <v>267716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2388,10 +2680,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2403,10 +2695,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>652</v>
+        <v>709</v>
       </c>
       <c r="N9" s="7">
-        <v>468894</v>
+        <v>502192</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2426,49 +2718,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>260375</v>
+        <v>3894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>354</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>248271</v>
+        <v>2267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>738</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>508646</v>
+        <v>6160</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,49 +2769,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="D11" s="7">
-        <v>9979</v>
+        <v>154677</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="I11" s="7">
-        <v>5931</v>
+        <v>152567</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>22</v>
+        <v>440</v>
       </c>
       <c r="N11" s="7">
-        <v>15910</v>
+        <v>307245</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,10 +2820,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2543,10 +2835,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2558,10 +2850,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2575,55 +2867,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1039</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>728745</v>
+        <v>7530</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>999</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>693480</v>
+        <v>4359</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
-        <v>2038</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>1422225</v>
+        <v>11889</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,49 +2924,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="D14" s="7">
-        <v>20013</v>
+        <v>170427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="I14" s="7">
-        <v>13448</v>
+        <v>166978</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
-        <v>47</v>
+        <v>488</v>
       </c>
       <c r="N14" s="7">
-        <v>33461</v>
+        <v>337405</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,55 +2975,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20013</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="7">
+        <v>19</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13448</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" s="7">
+        <v>47</v>
+      </c>
+      <c r="N16" s="7">
+        <v>33461</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1039</v>
+      </c>
+      <c r="D17" s="7">
+        <v>728745</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>999</v>
+      </c>
+      <c r="I17" s="7">
+        <v>693480</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2038</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1422225</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1067</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748758</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2085</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455686</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2744,8 +3197,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213C2D55-20D6-4116-AFFE-8A27F3E2ACB9}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53013A4-F614-47E9-BD27-3045A74FD883}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2761,7 +3214,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2862,49 +3315,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>314</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>208764</v>
+        <v>1183</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>198121</v>
+        <v>604</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
-        <v>635</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>406885</v>
+        <v>1787</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,49 +3366,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>4399</v>
+        <v>122981</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="I5" s="7">
-        <v>3147</v>
+        <v>131050</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>395</v>
       </c>
       <c r="N5" s="7">
-        <v>7546</v>
+        <v>254031</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,10 +3417,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2979,10 +3432,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2994,10 +3447,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3017,49 +3470,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>355</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>244932</v>
+        <v>5661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
-        <v>352</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>229981</v>
+        <v>4302</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="M7" s="7">
-        <v>707</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>474913</v>
+        <v>9963</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,49 +3521,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>5120</v>
+        <v>252400</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>325</v>
       </c>
       <c r="I8" s="7">
-        <v>5352</v>
+        <v>206215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>696</v>
       </c>
       <c r="N8" s="7">
-        <v>10472</v>
+        <v>458615</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,10 +3572,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3134,10 +3587,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3149,10 +3602,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3172,49 +3625,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>368</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>271895</v>
+        <v>6336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="H10" s="7">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>260508</v>
+        <v>8771</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>733</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>532403</v>
+        <v>15107</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,49 +3676,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>9734</v>
+        <v>182236</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="I11" s="7">
-        <v>7262</v>
+        <v>180128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>23</v>
+        <v>514</v>
       </c>
       <c r="N11" s="7">
-        <v>16996</v>
+        <v>362364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,10 +3727,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3289,10 +3742,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3304,10 +3757,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3321,55 +3774,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1037</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>725591</v>
+        <v>6073</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2084</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1038</v>
-      </c>
-      <c r="I13" s="7">
-        <v>688610</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
-        <v>2075</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>1414201</v>
+        <v>8157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,49 +3831,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="D14" s="7">
-        <v>19253</v>
+        <v>167975</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>15761</v>
+        <v>171217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
-        <v>51</v>
+        <v>470</v>
       </c>
       <c r="N14" s="7">
-        <v>35014</v>
+        <v>339191</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,55 +3882,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7">
+        <v>19253</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="7">
+        <v>23</v>
+      </c>
+      <c r="I16" s="7">
+        <v>15761</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" s="7">
+        <v>51</v>
+      </c>
+      <c r="N16" s="7">
+        <v>35014</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1037</v>
+      </c>
+      <c r="D17" s="7">
+        <v>725591</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1038</v>
+      </c>
+      <c r="I17" s="7">
+        <v>688610</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2075</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1414201</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3490,8 +4104,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAA9C1D-24A6-4C19-A278-ECEABF74CABB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B30F778-6E07-4047-BE12-2676B0A52395}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3507,7 +4121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3608,49 +4222,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>116565</v>
+        <v>750</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>246</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="H4" s="7">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>102724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
-        <v>422</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>219289</v>
+        <v>750</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,49 +4273,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7">
-        <v>1373</v>
+        <v>57753</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="I5" s="7">
-        <v>1079</v>
+        <v>57369</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="7">
         <v>224</v>
       </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
       <c r="N5" s="7">
-        <v>2452</v>
+        <v>115121</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,10 +4324,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3725,10 +4339,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3740,10 +4354,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3763,49 +4377,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3307</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3156</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6463</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="7">
-        <v>199889</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="7">
-        <v>275</v>
-      </c>
-      <c r="I7" s="7">
-        <v>193854</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M7" s="7">
-        <v>539</v>
-      </c>
-      <c r="N7" s="7">
-        <v>393745</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,49 +4428,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>271</v>
       </c>
       <c r="D8" s="7">
-        <v>5166</v>
+        <v>171992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="I8" s="7">
-        <v>4413</v>
+        <v>155609</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>524</v>
       </c>
       <c r="N8" s="7">
-        <v>9578</v>
+        <v>327600</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,10 +4479,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3880,10 +4494,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3895,10 +4509,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3918,49 +4532,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>458</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>384560</v>
+        <v>7675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>342057</v>
+        <v>4778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
-        <v>909</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>726618</v>
+        <v>12453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,49 +4583,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="D11" s="7">
-        <v>18150</v>
+        <v>194803</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="I11" s="7">
-        <v>8751</v>
+        <v>171335</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
-        <v>32</v>
+        <v>462</v>
       </c>
       <c r="N11" s="7">
-        <v>26901</v>
+        <v>366138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,10 +4634,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4035,10 +4649,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4050,10 +4664,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4067,55 +4681,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>947</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>701016</v>
+        <v>12956</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
-        <v>923</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>638636</v>
+        <v>6309</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
-        <v>1870</v>
+        <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>1339652</v>
+        <v>19266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,49 +4738,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>326</v>
       </c>
       <c r="D14" s="7">
-        <v>24688</v>
+        <v>276468</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="I14" s="7">
-        <v>14243</v>
+        <v>254324</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
-        <v>49</v>
+        <v>660</v>
       </c>
       <c r="N14" s="7">
-        <v>38931</v>
+        <v>530791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,55 +4789,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7">
+        <v>24688</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H16" s="7">
+        <v>19</v>
+      </c>
+      <c r="I16" s="7">
+        <v>14243</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M16" s="7">
+        <v>49</v>
+      </c>
+      <c r="N16" s="7">
+        <v>38931</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>947</v>
+      </c>
+      <c r="D17" s="7">
+        <v>701016</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H17" s="7">
+        <v>923</v>
+      </c>
+      <c r="I17" s="7">
+        <v>638636</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1870</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1339652</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>977</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>725704</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>942</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>652879</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1919</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1378583</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1001-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4F4643A-CFAA-4BEC-9F2E-1D6E8D271BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B174E50D-5C62-4248-9AF7-7DBA7BF1E77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F6AFCDC-409C-44E4-BE34-222A1392B814}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F150DB57-44AB-4CF3-B827-07598CCE7A8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="323">
   <si>
     <t>Menores según si padecen asma en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>2,42%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>2,02%</t>
@@ -89,889 +89,925 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>6,21%</t>
+    <t>5,62%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>98,76%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>97,9%</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31753AF7-C2BE-414C-9596-CA09B1560549}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE20EFDD-6C64-43FC-97FD-8FCDC84837D9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1817,13 +1853,13 @@
         <v>6130</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -1832,13 +1868,13 @@
         <v>5537</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -1847,13 +1883,13 @@
         <v>11667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1904,13 @@
         <v>135385</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>182</v>
@@ -1883,13 +1919,13 @@
         <v>122011</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>384</v>
@@ -1898,13 +1934,13 @@
         <v>257396</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,7 +1996,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1972,13 +2008,13 @@
         <v>6887</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -1987,13 +2023,13 @@
         <v>10266</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2002,13 +2038,13 @@
         <v>17153</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2059,13 @@
         <v>199162</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>271</v>
@@ -2038,13 +2074,13 @@
         <v>183831</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>571</v>
@@ -2053,13 +2089,13 @@
         <v>382993</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,13 +2163,13 @@
         <v>19277</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2142,13 +2178,13 @@
         <v>20535</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -2157,13 +2193,13 @@
         <v>39811</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2214,13 @@
         <v>703423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>987</v>
@@ -2193,13 +2229,13 @@
         <v>660486</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>2044</v>
@@ -2208,13 +2244,13 @@
         <v>1363910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,7 +2306,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46799652-6993-46DE-A0ED-1E041CCC073D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD241C99-93DA-4158-9FDB-E1AC405AF387}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2307,7 +2343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2414,13 +2450,13 @@
         <v>1298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2429,13 +2465,13 @@
         <v>2586</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2444,13 +2480,13 @@
         <v>3884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2501,13 @@
         <v>143215</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -2480,13 +2516,13 @@
         <v>143695</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>417</v>
@@ -2495,13 +2531,13 @@
         <v>286910</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2605,13 @@
         <v>7291</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2584,13 +2620,13 @@
         <v>4237</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -2599,13 +2635,13 @@
         <v>11528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2656,13 @@
         <v>260425</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
         <v>331</v>
@@ -2635,13 +2671,13 @@
         <v>230239</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>693</v>
@@ -2650,13 +2686,13 @@
         <v>490664</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2760,13 @@
         <v>3894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2739,13 +2775,13 @@
         <v>2267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2754,13 +2790,13 @@
         <v>6160</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2811,13 @@
         <v>154677</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H11" s="7">
         <v>217</v>
@@ -2790,13 +2826,13 @@
         <v>152567</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>440</v>
@@ -2805,13 +2841,13 @@
         <v>307245</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2903,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2879,13 +2915,13 @@
         <v>7530</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2894,13 +2930,13 @@
         <v>4359</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2909,13 +2945,13 @@
         <v>11889</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2966,13 @@
         <v>170427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>237</v>
@@ -2945,13 +2981,13 @@
         <v>166978</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
         <v>488</v>
@@ -2960,13 +2996,13 @@
         <v>337405</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3070,13 @@
         <v>20013</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3049,13 +3085,13 @@
         <v>13448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -3064,13 +3100,13 @@
         <v>33461</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3121,13 @@
         <v>728745</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>999</v>
@@ -3100,13 +3136,13 @@
         <v>693480</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>2038</v>
@@ -3115,13 +3151,13 @@
         <v>1422225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,7 +3213,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3197,7 +3233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53013A4-F614-47E9-BD27-3045A74FD883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A923691-6219-4C2A-A759-E2215211338F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3214,7 +3250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3321,13 +3357,13 @@
         <v>1183</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3336,13 +3372,13 @@
         <v>604</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3351,13 +3387,13 @@
         <v>1787</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3408,13 @@
         <v>122981</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>210</v>
@@ -3387,13 +3423,13 @@
         <v>131050</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
         <v>395</v>
@@ -3402,13 +3438,13 @@
         <v>254031</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3512,13 @@
         <v>5661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3491,13 +3527,13 @@
         <v>4302</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3506,13 +3542,13 @@
         <v>9963</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3563,13 @@
         <v>252400</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>325</v>
@@ -3542,13 +3578,13 @@
         <v>206215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>696</v>
@@ -3557,13 +3593,13 @@
         <v>458615</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3667,13 @@
         <v>6336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3646,13 +3682,13 @@
         <v>8771</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3661,13 +3697,13 @@
         <v>15107</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3718,13 @@
         <v>182236</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>260</v>
@@ -3697,13 +3733,13 @@
         <v>180128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>514</v>
@@ -3712,13 +3748,13 @@
         <v>362364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,7 +3810,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3786,13 +3822,13 @@
         <v>6073</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3801,13 +3837,13 @@
         <v>2084</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3816,13 +3852,13 @@
         <v>8157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3873,13 @@
         <v>167975</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -3852,13 +3888,13 @@
         <v>171217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>470</v>
@@ -3867,13 +3903,13 @@
         <v>339191</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3977,13 @@
         <v>19253</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3956,13 +3992,13 @@
         <v>15761</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -3974,10 +4010,10 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +4028,13 @@
         <v>725591</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>1038</v>
@@ -4007,13 +4043,13 @@
         <v>688610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>2075</v>
@@ -4025,10 +4061,10 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,7 +4120,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4104,7 +4140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B30F778-6E07-4047-BE12-2676B0A52395}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B777DE0A-84E8-4F45-8750-2FCD6A4DF59F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4121,7 +4157,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4228,13 +4264,13 @@
         <v>750</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4243,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4258,13 +4294,13 @@
         <v>750</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4315,13 @@
         <v>57753</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>109</v>
@@ -4294,10 +4330,10 @@
         <v>57369</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4309,13 +4345,13 @@
         <v>115121</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4419,13 @@
         <v>3307</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4398,13 +4434,13 @@
         <v>3156</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4413,13 +4449,13 @@
         <v>6463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4470,13 @@
         <v>171992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H8" s="7">
         <v>253</v>
@@ -4449,13 +4485,13 @@
         <v>155609</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>524</v>
@@ -4464,13 +4500,13 @@
         <v>327600</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4574,13 @@
         <v>7675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4553,13 +4589,13 @@
         <v>4778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -4568,13 +4604,13 @@
         <v>12453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4625,13 @@
         <v>194803</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -4604,13 +4640,13 @@
         <v>171335</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="M11" s="7">
         <v>462</v>
@@ -4619,13 +4655,13 @@
         <v>366138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,7 +4717,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4693,13 +4729,13 @@
         <v>12956</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4711,10 +4747,10 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -4723,13 +4759,13 @@
         <v>19266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4780,13 @@
         <v>276468</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -4762,10 +4798,10 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>660</v>
@@ -4774,13 +4810,13 @@
         <v>530791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4884,13 @@
         <v>24688</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4863,13 +4899,13 @@
         <v>14243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>52</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -4878,13 +4914,13 @@
         <v>38931</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4935,13 @@
         <v>701016</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>923</v>
@@ -4914,13 +4950,13 @@
         <v>638636</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>1870</v>
@@ -4929,13 +4965,13 @@
         <v>1339652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,7 +5027,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1001-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B174E50D-5C62-4248-9AF7-7DBA7BF1E77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3911144A-82BC-4630-80B3-0EA5BEB58571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F150DB57-44AB-4CF3-B827-07598CCE7A8C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{61CD0F2C-74F1-427B-992B-FB115A55E2F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="327">
   <si>
     <t>Menores según si padecen asma en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,940 +74,952 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
     <t>2,42%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>6,31%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>0,98%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen asma en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE20EFDD-6C64-43FC-97FD-8FCDC84837D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB646B8-AE80-4A5B-BCCB-ACB8D4A3F949}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1537,10 +1549,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2940</v>
+        <v>2145</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1552,10 +1564,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>2145</v>
+        <v>2940</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1588,10 +1600,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D5" s="7">
-        <v>118440</v>
+        <v>104026</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1603,10 +1615,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="I5" s="7">
-        <v>104026</v>
+        <v>118440</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1639,25 +1651,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1692,10 +1704,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>3320</v>
+        <v>2587</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1707,10 +1719,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>2587</v>
+        <v>3320</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1743,10 +1755,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D8" s="7">
-        <v>250436</v>
+        <v>250618</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1758,10 +1770,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I8" s="7">
-        <v>250618</v>
+        <v>250436</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1794,25 +1806,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1847,34 +1859,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5537</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6130</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5537</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -1883,13 +1895,13 @@
         <v>11667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,34 +1910,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>182</v>
+      </c>
+      <c r="D11" s="7">
+        <v>122011</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="7">
         <v>202</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>135385</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="7">
-        <v>182</v>
-      </c>
-      <c r="I11" s="7">
-        <v>122011</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>384</v>
@@ -1934,13 +1946,13 @@
         <v>257396</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,25 +1961,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1996,40 +2008,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10266</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6887</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10266</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2038,13 +2050,13 @@
         <v>17153</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,34 +2065,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>271</v>
+      </c>
+      <c r="D14" s="7">
+        <v>183831</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="7">
         <v>300</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>199162</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="7">
-        <v>271</v>
-      </c>
-      <c r="I14" s="7">
-        <v>183831</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>571</v>
@@ -2089,13 +2101,13 @@
         <v>382993</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,25 +2116,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2157,34 +2169,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>19277</v>
+        <v>20535</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>29</v>
+      </c>
+      <c r="I16" s="7">
+        <v>19277</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="7">
-        <v>31</v>
-      </c>
-      <c r="I16" s="7">
-        <v>20535</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -2193,7 +2205,7 @@
         <v>39811</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>90</v>
@@ -2208,10 +2220,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1057</v>
+        <v>987</v>
       </c>
       <c r="D17" s="7">
-        <v>703423</v>
+        <v>660486</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>92</v>
@@ -2220,22 +2232,22 @@
         <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1057</v>
+      </c>
+      <c r="I17" s="7">
+        <v>703423</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="7">
-        <v>987</v>
-      </c>
-      <c r="I17" s="7">
-        <v>660486</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>2044</v>
@@ -2244,7 +2256,7 @@
         <v>1363910</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>98</v>
@@ -2259,25 +2271,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2326,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD241C99-93DA-4158-9FDB-E1AC405AF387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B2E712-103A-4892-92BC-7F9CDF746AF3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2444,10 +2456,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>1298</v>
+        <v>2586</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>102</v>
@@ -2459,10 +2471,10 @@
         <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>2586</v>
+        <v>1298</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>105</v>
@@ -2486,7 +2498,7 @@
         <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2495,10 +2507,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D5" s="7">
-        <v>143215</v>
+        <v>143695</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>110</v>
@@ -2510,10 +2522,10 @@
         <v>112</v>
       </c>
       <c r="H5" s="7">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>143695</v>
+        <v>143215</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>113</v>
@@ -2534,7 +2546,7 @@
         <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>117</v>
@@ -2546,25 +2558,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2599,10 +2611,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>7291</v>
+        <v>4237</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>118</v>
@@ -2614,19 +2626,19 @@
         <v>120</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>4237</v>
+        <v>7291</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -2635,13 +2647,13 @@
         <v>11528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,34 +2662,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>331</v>
+      </c>
+      <c r="D8" s="7">
+        <v>230239</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="7">
         <v>362</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>260425</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" s="7">
-        <v>331</v>
-      </c>
-      <c r="I8" s="7">
-        <v>230239</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="M8" s="7">
         <v>693</v>
@@ -2686,13 +2698,13 @@
         <v>490664</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,25 +2713,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267716</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2754,34 +2766,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2267</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3894</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2267</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2790,13 +2802,13 @@
         <v>6160</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,25 +2817,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>217</v>
+      </c>
+      <c r="D11" s="7">
+        <v>152567</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
         <v>223</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>154677</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="7">
-        <v>217</v>
-      </c>
-      <c r="I11" s="7">
-        <v>152567</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>145</v>
@@ -2832,7 +2844,7 @@
         <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>440</v>
@@ -2841,10 +2853,10 @@
         <v>307245</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>149</v>
@@ -2856,25 +2868,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2903,16 +2915,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>7530</v>
+        <v>4359</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>150</v>
@@ -2924,10 +2936,10 @@
         <v>152</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>4359</v>
+        <v>7530</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>153</v>
@@ -2960,10 +2972,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D14" s="7">
-        <v>170427</v>
+        <v>166978</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>159</v>
@@ -2975,10 +2987,10 @@
         <v>161</v>
       </c>
       <c r="H14" s="7">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="I14" s="7">
-        <v>166978</v>
+        <v>170427</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>162</v>
@@ -3011,25 +3023,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3064,34 +3076,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7">
+        <v>13448</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="7">
         <v>28</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>20013</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H16" s="7">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13448</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -3100,13 +3112,13 @@
         <v>33461</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3127,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="D17" s="7">
-        <v>728745</v>
+        <v>693480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>175</v>
@@ -3130,19 +3142,19 @@
         <v>176</v>
       </c>
       <c r="H17" s="7">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="I17" s="7">
-        <v>693480</v>
+        <v>728745</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="M17" s="7">
         <v>2038</v>
@@ -3151,13 +3163,13 @@
         <v>1422225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,25 +3178,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1067</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748758</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3233,7 +3245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A923691-6219-4C2A-A759-E2215211338F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9348AF90-5E7C-44A0-A70C-E59AA48AC929}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3250,7 +3262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3351,34 +3363,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>604</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1183</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>604</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3387,13 +3399,13 @@
         <v>1787</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,34 +3414,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>210</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131050</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="7">
         <v>185</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>122981</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="7">
-        <v>210</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131050</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M5" s="7">
         <v>395</v>
@@ -3438,13 +3450,13 @@
         <v>254031</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,25 +3465,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3506,34 +3518,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4302</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="7">
         <v>9</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>5661</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4302</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3542,13 +3554,13 @@
         <v>9963</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,34 +3569,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>325</v>
+      </c>
+      <c r="D8" s="7">
+        <v>206215</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="7">
         <v>371</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>252400</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H8" s="7">
-        <v>325</v>
-      </c>
-      <c r="I8" s="7">
-        <v>206215</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>696</v>
@@ -3593,13 +3605,13 @@
         <v>458615</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,25 +3620,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3661,34 +3673,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8771</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6336</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="7">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8771</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3697,13 +3709,13 @@
         <v>15107</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,34 +3724,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>260</v>
+      </c>
+      <c r="D11" s="7">
+        <v>180128</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H11" s="7">
         <v>254</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>182236</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H11" s="7">
-        <v>260</v>
-      </c>
-      <c r="I11" s="7">
-        <v>180128</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>514</v>
@@ -3748,13 +3760,13 @@
         <v>362364</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,25 +3775,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3810,40 +3822,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2084</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6073</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2084</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3852,13 +3864,13 @@
         <v>8157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,34 +3879,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>243</v>
+      </c>
+      <c r="D14" s="7">
+        <v>171217</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="7">
         <v>227</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>167975</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>171217</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>470</v>
@@ -3903,13 +3915,13 @@
         <v>339191</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,25 +3930,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3971,34 +3983,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>23</v>
+      </c>
+      <c r="D16" s="7">
+        <v>15761</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H16" s="7">
         <v>28</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>19253</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="H16" s="7">
-        <v>23</v>
-      </c>
-      <c r="I16" s="7">
-        <v>15761</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
@@ -4007,13 +4019,13 @@
         <v>35014</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,34 +4034,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>1038</v>
+      </c>
+      <c r="D17" s="7">
+        <v>688610</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="7">
         <v>1037</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>725591</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1038</v>
-      </c>
-      <c r="I17" s="7">
-        <v>688610</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>2075</v>
@@ -4058,13 +4070,13 @@
         <v>1414201</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,25 +4085,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4140,7 +4152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B777DE0A-84E8-4F45-8750-2FCD6A4DF59F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5054CF76-4CEC-487A-BB74-222CC764E531}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4157,7 +4169,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4258,49 +4270,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>750</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>724</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>750</v>
+        <v>724</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,49 +4321,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>109</v>
+      </c>
+      <c r="D5" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="7">
-        <v>57753</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7">
+        <v>115</v>
+      </c>
+      <c r="I5" s="7">
+        <v>60720</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="7">
-        <v>109</v>
-      </c>
-      <c r="I5" s="7">
-        <v>57369</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>224</v>
       </c>
       <c r="N5" s="7">
-        <v>115121</v>
+        <v>118231</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,25 +4372,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4393,7 +4405,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4416,7 +4428,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>3307</v>
+        <v>3129</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>267</v>
@@ -4425,37 +4437,37 @@
         <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>3156</v>
+        <v>3650</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>6463</v>
+        <v>6779</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,46 +4476,46 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>253</v>
+      </c>
+      <c r="D8" s="7">
+        <v>156170</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H8" s="7">
         <v>271</v>
       </c>
-      <c r="D8" s="7">
-        <v>171992</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>178904</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H8" s="7">
-        <v>253</v>
-      </c>
-      <c r="I8" s="7">
-        <v>155609</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>524</v>
       </c>
       <c r="N8" s="7">
-        <v>327600</v>
+        <v>335074</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>29</v>
@@ -4515,25 +4527,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4548,7 +4560,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4568,49 +4580,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4751</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
-        <v>7675</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>9415</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4778</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>12453</v>
+        <v>14166</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,49 +4631,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>227</v>
+      </c>
+      <c r="D11" s="7">
+        <v>168321</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="7">
         <v>235</v>
       </c>
-      <c r="D11" s="7">
-        <v>194803</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>203075</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="H11" s="7">
-        <v>227</v>
-      </c>
-      <c r="I11" s="7">
-        <v>171335</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M11" s="7">
         <v>462</v>
       </c>
       <c r="N11" s="7">
-        <v>366138</v>
+        <v>371397</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,25 +4682,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4703,7 +4715,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4717,55 +4729,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6215</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H13" s="7">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
-        <v>12956</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>13371</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6309</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>19266</v>
+        <v>19586</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,49 +4786,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>334</v>
+      </c>
+      <c r="D14" s="7">
+        <v>269243</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H14" s="7">
         <v>326</v>
       </c>
-      <c r="D14" s="7">
-        <v>276468</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H14" s="7">
-        <v>334</v>
-      </c>
       <c r="I14" s="7">
-        <v>254324</v>
+        <v>292112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>660</v>
       </c>
       <c r="N14" s="7">
-        <v>530791</v>
+        <v>561354</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4840,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4843,7 +4855,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4858,7 +4870,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4878,49 +4890,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>24688</v>
+        <v>14095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>14243</v>
+        <v>27160</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
       </c>
       <c r="N16" s="7">
-        <v>38931</v>
+        <v>41255</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,49 +4941,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>923</v>
+      </c>
+      <c r="D17" s="7">
+        <v>651245</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="7">
         <v>947</v>
       </c>
-      <c r="D17" s="7">
-        <v>701016</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H17" s="7">
-        <v>923</v>
-      </c>
       <c r="I17" s="7">
-        <v>638636</v>
+        <v>734812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>1870</v>
       </c>
       <c r="N17" s="7">
-        <v>1339652</v>
+        <v>1386057</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,25 +4992,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>665340</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>977</v>
       </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
       <c r="I18" s="7">
-        <v>652879</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5013,7 +5025,7 @@
         <v>1919</v>
       </c>
       <c r="N18" s="7">
-        <v>1378583</v>
+        <v>1427312</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
